--- a/source_data_old/SDG561_data.xlsx
+++ b/source_data_old/SDG561_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/hu2_un_org/Documents/Desktop/Work/Step3_NewData/_Formatted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{E9B5A5C0-5010-4B48-82A2-62AA90EAB100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7EC8287-B7F0-48CA-98B2-71DE0CA95A57}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC329EB6-8525-47E0-A10B-60CE3781C66A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="8805" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal5" sheetId="2" r:id="rId1"/>
@@ -1252,13 +1252,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY469"/>
+  <dimension ref="A1:AA469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="AB1" sqref="AB1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
@@ -1273,7 +1273,7 @@
     <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,32 +1355,8 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-    </row>
-    <row r="2" spans="1:51">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1463,7 +1439,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1546,7 +1522,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1629,7 +1605,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1712,7 +1688,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1795,7 +1771,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1878,7 +1854,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1961,7 +1937,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2044,7 +2020,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2127,7 +2103,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2210,7 +2186,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2293,7 +2269,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2376,7 +2352,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2459,7 +2435,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2542,7 +2518,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -39528,14 +39504,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -39758,6 +39726,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -39768,13 +39744,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E00559-F6D9-4D21-8562-5F45BCBFAB7F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C028F0D7-BA05-47F6-A8EA-E956EAFF81EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C028F0D7-BA05-47F6-A8EA-E956EAFF81EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E00559-F6D9-4D21-8562-5F45BCBFAB7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A011B9F-F607-44AC-9DC6-7B5AD5D2D824}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A011B9F-F607-44AC-9DC6-7B5AD5D2D824}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>